--- a/biology/Mycologie/Suillus_flavidus/Suillus_flavidus.xlsx
+++ b/biology/Mycologie/Suillus_flavidus/Suillus_flavidus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet jaunâtre, Bolet jaune des tourbières
-Suillus flavidus, le Bolet jaunâtre, est une espèce rare de champignon (Fungi) basidiomycète du genre Suillus. C'est une espèce quasi menacée[1]. Il est caractérisé par ses teintes jaunâtres et son pied élancé.
+Suillus flavidus, le Bolet jaunâtre, est une espèce rare de champignon (Fungi) basidiomycète du genre Suillus. C'est une espèce quasi menacée. Il est caractérisé par ses teintes jaunâtres et son pied élancé.
 </t>
         </is>
       </c>
@@ -512,57 +524,54 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Suillus flavidus (Fr.) J. Presl, 1846[2]. 
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus flavidus Fr., 1815[2].
-Synonymes
-Suillus flavidus a pour synonymes[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Suillus flavidus (Fr.) J. Presl, 1846. 
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus flavidus Fr., 1815.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Suillus_flavidus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_flavidus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Suillus flavidus a pour synonymes :
 Boletopsis flavidus (Fr.) Henn., 1900
 Boletus flavidus Fr., 1815
 Ixocomus flavidus (Fr.) Quél., 1888
 Viscipellis flavida (Fr.) Quél., 1886
-Viscipellis flavida (Fr.) Quél., 1886
-Noms vulgaires et vernaculaires
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Bolet jaunâtre[3], bolet jaune des tourbières[4].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Suillus_flavidus</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Suillus_flavidus</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description du sporophore</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques de Suillus flavidus, le Bolet jaunâtre, sont les suivantes :
-Son chapeau mesure 3 à 8 cm, il est visqueux, jaune citrin, puis ochracé avec un petit reflet verdâtre[5].
-L'hyménophore présente des tubes jaunes. Les pores sont amples, anguleux et jaunes[5].
-Son stipe mesure 4 à 9 cm x 0,5 à 1,5 cm, il est jaune, visqueux, à anneau blanchâtre puis brun, ponctué au-dessus de l'anneau[5].
-La chair est molle, crème et plus jaune dans la base du pied. Sa saveur est douce acidulée et son odeur est faible, agréable, un peu fruitée[5].
-Caractéristiques microscopiques
-Ses spores mesurent 8 à 11 μm x 3,5 à 5 μm, elles sont elliptiques-fusoïdes[5].
-</t>
+Viscipellis flavida (Fr.) Quél., 1886</t>
         </is>
       </c>
     </row>
@@ -587,12 +596,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Variétés et formes</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suillus flavidus f. megaporinus (Snell &amp; E.A. Dick) Klofac, 2020
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Bolet jaunâtre, bolet jaune des tourbières.
 </t>
         </is>
       </c>
@@ -618,12 +633,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Habitat et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit un champignon ectomycorhizien, poussant dans les tourbières et les marécages de montagne, sous pins[5].
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques de Suillus flavidus, le Bolet jaunâtre, sont les suivantes :
+Son chapeau mesure 3 à 8 cm, il est visqueux, jaune citrin, puis ochracé avec un petit reflet verdâtre.
+L'hyménophore présente des tubes jaunes. Les pores sont amples, anguleux et jaunes.
+Son stipe mesure 4 à 9 cm x 0,5 à 1,5 cm, il est jaune, visqueux, à anneau blanchâtre puis brun, ponctué au-dessus de l'anneau.
+La chair est molle, crème et plus jaune dans la base du pied. Sa saveur est douce acidulée et son odeur est faible, agréable, un peu fruitée.
 </t>
         </is>
       </c>
@@ -649,12 +670,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Comestibilité</t>
+          <t>Description du sporophore</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Comme tous les bolets du genre Suillus, le Bolet jaunâtre est un comestible médiocre, plus au moins laxatif selon la tolérance individuelle, la quantité consommée et le degré de maturité des spécimens consommés. Pour cela il est préconisé de ne cueillir que des jeunes spécimens, de retirer le pied fibreux, de peler la cuticule et de consommer une quantité modeste la première fois pour évaluer sa propre tolérance aux effets laxatifs. Sa rareté devrait cependant inciter à ne pas le consommer[6].
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 8 à 11 μm x 3,5 à 5 μm, elles sont elliptiques-fusoïdes.
 </t>
         </is>
       </c>
@@ -680,14 +707,115 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Variétés et formes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suillus flavidus f. megaporinus (Snell &amp; E.A. Dick) Klofac, 2020
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Suillus_flavidus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_flavidus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Habitat et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit un champignon ectomycorhizien, poussant dans les tourbières et les marécages de montagne, sous pins.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Suillus_flavidus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_flavidus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Comestibilité</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme tous les bolets du genre Suillus, le Bolet jaunâtre est un comestible médiocre, plus au moins laxatif selon la tolérance individuelle, la quantité consommée et le degré de maturité des spécimens consommés. Pour cela il est préconisé de ne cueillir que des jeunes spécimens, de retirer le pied fibreux, de peler la cuticule et de consommer une quantité modeste la première fois pour évaluer sa propre tolérance aux effets laxatifs. Sa rareté devrait cependant inciter à ne pas le consommer.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Suillus_flavidus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_flavidus</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Confusions possibles</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bolet jaune (Suillus luteus) vient également sous les pins et possède un anneau, mais son chapeau est sombre et ses pores sont serrés.
 Le Bolet de Sibérie (Suillus sibiricus) a également des pores amples, un anneau, et son chapeau peut devenir tout jaune, mais ce dernier est couvert de mèches et il ne pousse que sous les pins cembro (Pinus cembra).
-Le Bolet hybride (Suillus bresadolae) a un chapeau brun-jaune, un anneau blanc qui jaunit, mais des pores gris ou gris-jaune rappelant ceux du Bolet gris des mélèzes (Suillus viscidus)[5].
+Le Bolet hybride (Suillus bresadolae) a un chapeau brun-jaune, un anneau blanc qui jaunit, mais des pores gris ou gris-jaune rappelant ceux du Bolet gris des mélèzes (Suillus viscidus).
 </t>
         </is>
       </c>
